--- a/documents/AppliedSciences/Recursive_queries_macOS12.3.1.xlsx
+++ b/documents/AppliedSciences/Recursive_queries_macOS12.3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202FE055-2AC2-484D-A7A2-694A24B99071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7228451-F6DE-E74A-9375-7D1F18CBECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28900" yWindow="13660" windowWidth="47900" windowHeight="22100" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,10 +287,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -380,7 +386,7 @@
             <c:numRef>
               <c:f>Taul1!$B$24:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9152</c:v>
@@ -451,7 +457,7 @@
             <c:numRef>
               <c:f>Taul1!$C$24:$C$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -558,7 +564,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -738,7 +744,7 @@
             <c:numRef>
               <c:f>Taul1!$B$57:$B$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>92917</c:v>
@@ -809,7 +815,7 @@
             <c:numRef>
               <c:f>Taul1!$C$57:$C$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -916,7 +922,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2493,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3029,71 +3035,71 @@
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="12">
         <f>B18</f>
         <v>9152</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <f>C18</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="12">
         <v>7850</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="12">
         <f>D18</f>
         <v>73</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <f>E18</f>
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <f>F18</f>
         <v>42</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <f>G18</f>
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -3612,76 +3618,88 @@
       <c r="A57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="12">
         <f>B50</f>
         <v>92917</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="13">
         <f>C50</f>
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="12">
         <f>H50</f>
         <v>79037</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="13">
         <f>I50</f>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="12">
         <f>D50</f>
         <v>331338</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="13">
         <f>E50</f>
         <v>208573</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="12">
         <f>F50</f>
         <v>2146</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="13">
         <f>G50</f>
         <v>2127</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -3694,18 +3712,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
